--- a/fig/Bayesiannet-example.xlsx
+++ b/fig/Bayesiannet-example.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koichi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\euler\nineties\projects\prml-seminar\fig\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1300,7 +1300,7 @@
         <v>2</v>
       </c>
       <c r="I12">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
@@ -1323,7 +1323,7 @@
         <v>3</v>
       </c>
       <c r="I13">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.15">
@@ -1634,7 +1634,7 @@
         <v>2</v>
       </c>
       <c r="I12">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.15">
@@ -1657,7 +1657,7 @@
         <v>3</v>
       </c>
       <c r="I13">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.15">
@@ -1974,7 +1974,7 @@
         <v>2</v>
       </c>
       <c r="I12">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.15">
@@ -1997,7 +1997,7 @@
         <v>3</v>
       </c>
       <c r="I13">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.15">
@@ -2380,7 +2380,7 @@
         <v>2</v>
       </c>
       <c r="I12">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.15">
@@ -2403,7 +2403,7 @@
         <v>3</v>
       </c>
       <c r="I13">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.15">
@@ -2581,7 +2581,7 @@
       </c>
       <c r="H22">
         <f>D21*I12+D23*I16</f>
-        <v>2.9400000000000009E-2</v>
+        <v>0.26460000000000011</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.15">
@@ -2603,7 +2603,7 @@
       </c>
       <c r="H23">
         <f>D21*I13+テーブル378838692[[#This Row],[Φ1(B,C)]]*I17</f>
-        <v>0.45060000000000011</v>
+        <v>0.21540000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2839,7 +2839,7 @@
         <v>2</v>
       </c>
       <c r="I12">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="K12" t="s">
         <v>22</v>
@@ -2865,7 +2865,7 @@
         <v>3</v>
       </c>
       <c r="I13">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.15">
@@ -3050,7 +3050,7 @@
       </c>
       <c r="M21">
         <f>H20*H5+H22*H7</f>
-        <v>0.15987000000000001</v>
+        <v>0.39507000000000014</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.15">
@@ -3072,7 +3072,7 @@
       </c>
       <c r="H22">
         <f>D21*I12+D23*I16</f>
-        <v>2.9400000000000009E-2</v>
+        <v>0.26460000000000011</v>
       </c>
       <c r="K22" t="s">
         <v>3</v>
@@ -3104,7 +3104,7 @@
       </c>
       <c r="H23">
         <f>D21*I13+テーブル37883869299[[#This Row],[Φ1(B,C)]]*I17</f>
-        <v>0.45060000000000011</v>
+        <v>0.21540000000000001</v>
       </c>
       <c r="K23" t="s">
         <v>3</v>
@@ -3114,7 +3114,7 @@
       </c>
       <c r="M23">
         <f>H21*H5+テーブル37883869293100[[#This Row],[Φ2(C, D)]]*H7</f>
-        <v>0.47613000000000011</v>
+        <v>0.24093000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -3352,7 +3352,7 @@
         <v>2</v>
       </c>
       <c r="I12">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="K12" t="s">
         <v>22</v>
@@ -3378,7 +3378,7 @@
         <v>3</v>
       </c>
       <c r="I13">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.15">
@@ -3553,7 +3553,7 @@
       </c>
       <c r="P20">
         <f>テーブル37883869293100101109[[#This Row],[Φ3(D,E)]]+M21</f>
-        <v>0.15987000000000001</v>
+        <v>0.39507000000000014</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.15">
@@ -3585,14 +3585,14 @@
       </c>
       <c r="M21">
         <f>H20*H5+H22*H7</f>
-        <v>0.15987000000000001</v>
+        <v>0.39507000000000014</v>
       </c>
       <c r="O21" t="s">
         <v>3</v>
       </c>
       <c r="P21">
         <f>M22+M23</f>
-        <v>0.47613000000000011</v>
+        <v>0.24093000000000001</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.15">
@@ -3614,7 +3614,7 @@
       </c>
       <c r="H22">
         <f>D21*I12+D23*I16</f>
-        <v>2.9400000000000009E-2</v>
+        <v>0.26460000000000011</v>
       </c>
       <c r="K22" t="s">
         <v>3</v>
@@ -3646,7 +3646,7 @@
       </c>
       <c r="H23">
         <f>D21*I13+テーブル37883869299107[[#This Row],[Φ1(B,C)]]*I17</f>
-        <v>0.45060000000000011</v>
+        <v>0.21540000000000001</v>
       </c>
       <c r="K23" t="s">
         <v>3</v>
@@ -3656,7 +3656,7 @@
       </c>
       <c r="M23">
         <f>H21*H5+テーブル37883869293100108[[#This Row],[Φ2(C, D)]]*H7</f>
-        <v>0.47613000000000011</v>
+        <v>0.24093000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/fig/Bayesiannet-example.xlsx
+++ b/fig/Bayesiannet-example.xlsx
@@ -79,31 +79,6 @@
   </si>
   <si>
     <t>p(E|C)</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>(色が付いている条件付き確率表が集合Sの要素)</t>
-    <rPh sb="1" eb="2">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>ジョウケンツ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カクリツ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>シュウゴウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヨウソ</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -229,6 +204,25 @@
     </rPh>
     <rPh sb="33" eb="35">
       <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>(色が付いている表が集合Sの要素)</t>
+    <rPh sb="1" eb="2">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュウゴウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヨウソ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1124,7 +1118,7 @@
   <sheetData>
     <row r="1" spans="2:9" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
@@ -1450,12 +1444,12 @@
   <sheetData>
     <row r="1" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.15">
@@ -1475,7 +1469,7 @@
         <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.15">
@@ -1784,12 +1778,12 @@
   <sheetData>
     <row r="1" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.15">
@@ -1809,7 +1803,7 @@
         <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.15">
@@ -1846,7 +1840,7 @@
         <v>0.3</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.15">
@@ -1860,7 +1854,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.15">
@@ -2100,7 +2094,7 @@
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
@@ -2184,12 +2178,12 @@
   <sheetData>
     <row r="1" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.15">
@@ -2209,7 +2203,7 @@
         <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.15">
@@ -2246,7 +2240,7 @@
         <v>0.3</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.15">
@@ -2260,7 +2254,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.15">
@@ -2294,7 +2288,7 @@
         <v>0.2</v>
       </c>
       <c r="K8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.15">
@@ -2320,7 +2314,7 @@
         <v>9</v>
       </c>
       <c r="K9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.15">
@@ -2506,7 +2500,7 @@
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
         <v>6</v>
@@ -2515,7 +2509,7 @@
         <v>8</v>
       </c>
       <c r="H19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.15">
@@ -2640,12 +2634,12 @@
   <sheetData>
     <row r="1" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.15">
@@ -2665,7 +2659,7 @@
         <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.15">
@@ -2702,7 +2696,7 @@
         <v>0.3</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.15">
@@ -2716,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.15">
@@ -2750,7 +2744,7 @@
         <v>0.2</v>
       </c>
       <c r="K8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.15">
@@ -2776,7 +2770,7 @@
         <v>9</v>
       </c>
       <c r="K9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.15">
@@ -2825,7 +2819,7 @@
         <v>0.05</v>
       </c>
       <c r="K11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.15">
@@ -2842,7 +2836,7 @@
         <v>0.9</v>
       </c>
       <c r="K12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.15">
@@ -2968,7 +2962,7 @@
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
         <v>6</v>
@@ -2977,7 +2971,7 @@
         <v>8</v>
       </c>
       <c r="H19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K19" t="s">
         <v>8</v>
@@ -2986,7 +2980,7 @@
         <v>10</v>
       </c>
       <c r="M19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.15">
@@ -3153,12 +3147,12 @@
   <sheetData>
     <row r="1" spans="2:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.15">
       <c r="K2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.15">
@@ -3178,7 +3172,7 @@
         <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.15">
@@ -3215,7 +3209,7 @@
         <v>0.3</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.15">
@@ -3229,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.15">
@@ -3263,7 +3257,7 @@
         <v>0.2</v>
       </c>
       <c r="K8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.15">
@@ -3289,7 +3283,7 @@
         <v>9</v>
       </c>
       <c r="K9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.15">
@@ -3338,7 +3332,7 @@
         <v>0.05</v>
       </c>
       <c r="K11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.15">
@@ -3355,7 +3349,7 @@
         <v>0.9</v>
       </c>
       <c r="K12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.15">
@@ -3404,7 +3398,7 @@
         <v>0.8</v>
       </c>
       <c r="K14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.15">
@@ -3430,7 +3424,7 @@
         <v>0.2</v>
       </c>
       <c r="K15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.15">
@@ -3456,7 +3450,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.15">
@@ -3490,7 +3484,7 @@
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
         <v>6</v>
@@ -3499,7 +3493,7 @@
         <v>8</v>
       </c>
       <c r="H19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K19" t="s">
         <v>8</v>
@@ -3508,13 +3502,13 @@
         <v>10</v>
       </c>
       <c r="M19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O19" t="s">
         <v>8</v>
       </c>
       <c r="P19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.15">
